--- a/botZapSeleniumFlask/clientes.xlsx
+++ b/botZapSeleniumFlask/clientes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" state="visible" r:id="rId3"/>
@@ -51,12 +51,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="#,##0.00,\€;\-#,##0.00,\€"/>
     <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00\ [$€-816];[RED]\-#,##0.00\ [$€-816]"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -176,7 +177,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -378,8 +379,8 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -409,7 +410,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="9" t="n">
-        <v>351914971799</v>
+        <v>351910000000</v>
       </c>
       <c r="C2" s="10" t="n">
         <v>45292</v>
@@ -423,7 +424,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="9" t="n">
-        <v>351914476689</v>
+        <v>351910000001</v>
       </c>
       <c r="C3" s="10" t="n">
         <v>45293</v>
@@ -437,7 +438,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="9" t="n">
-        <v>351914482047</v>
+        <v>351910000002</v>
       </c>
       <c r="C4" s="10" t="n">
         <v>45294</v>
@@ -451,7 +452,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="9" t="n">
-        <v>351914479849</v>
+        <v>351910000003</v>
       </c>
       <c r="C5" s="10" t="n">
         <v>45295</v>
@@ -513,8 +514,8 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
